--- a/src/main/webapp/template/templateUserInfo.xlsx
+++ b/src/main/webapp/template/templateUserInfo.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="staff_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>员工号</t>
   </si>
@@ -109,6 +109,22 @@
   </si>
   <si>
     <t>WTR订单</t>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -122,12 +138,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -153,17 +170,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -218,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,11 +451,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -441,112 +459,177 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="14.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12345678909</v>
+      </c>
+      <c r="G2" s="1">
+        <v>123424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12345678909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageMargins left="0.29930555555555599" right="0.29930555555555599" top="0.60972222222222205" bottom="0.36944444444444402" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>